--- a/trend_results/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/trend_results/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/trend_results/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/trend_results/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>site name</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>RepSite</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
@@ -467,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,31 +564,31 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>1.82273740049398E-06</v>
+        <v>0.100459479937262</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.831932773109244</v>
+        <v>0.845528455284553</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>657</v>
+        <v>771</v>
       </c>
       <c r="K2">
-        <v>118.377423822715</v>
+        <v>36.525</v>
       </c>
       <c r="L2">
-        <v>77.1343556328638</v>
+        <v>-11.1002510203727</v>
       </c>
       <c r="M2">
-        <v>159.857786147524</v>
+        <v>87.9097045735863</v>
       </c>
       <c r="N2">
-        <v>18.0178727279627</v>
+        <v>4.73735408560311</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -600,19 +603,19 @@
         <v>5583091.402</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -632,37 +635,37 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>8.87243211182967E-10</v>
+        <v>1.37907136463608E-06</v>
       </c>
       <c r="G3">
-        <v>0.0041322314049586</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.7479338842975209</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>525</v>
+        <v>612.5</v>
       </c>
       <c r="K3">
-        <v>54.9357890092236</v>
+        <v>46.5578352781617</v>
       </c>
       <c r="L3">
-        <v>41.6841517769208</v>
+        <v>30.7301219123213</v>
       </c>
       <c r="M3">
-        <v>68.5716223013025</v>
+        <v>61.975697790517</v>
       </c>
       <c r="N3">
-        <v>10.4639598112807</v>
+        <v>7.60127922908762</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3">
         <v>1762563.938</v>
@@ -671,19 +674,19 @@
         <v>5583091.402</v>
       </c>
       <c r="S3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -703,37 +706,37 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <v>0.005181887343443</v>
+        <v>4.03626388140437E-05</v>
       </c>
       <c r="G4">
-        <v>0.0028248587570621</v>
+        <v>0.0027322404371584</v>
       </c>
       <c r="H4">
-        <v>0.6610169491525421</v>
+        <v>0.658469945355191</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>536</v>
+        <v>576.5</v>
       </c>
       <c r="K4">
-        <v>15.4792235186395</v>
+        <v>22.0861195520967</v>
       </c>
       <c r="L4">
-        <v>5.67610534324319</v>
+        <v>13.7678737007792</v>
       </c>
       <c r="M4">
-        <v>24.6931877532036</v>
+        <v>30.9553012947599</v>
       </c>
       <c r="N4">
-        <v>2.88791483556708</v>
+        <v>3.83107017382424</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q4">
         <v>1762563.938</v>
@@ -742,19 +745,90 @@
         <v>5583091.402</v>
       </c>
       <c r="S4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>0.230406209431174</v>
+      </c>
+      <c r="G5">
+        <v>0.00418410041841</v>
+      </c>
+      <c r="H5">
+        <v>0.619246861924686</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>600</v>
+      </c>
+      <c r="K5">
+        <v>2.97839108713384</v>
+      </c>
+      <c r="L5">
+        <v>-3.57794641634506</v>
+      </c>
+      <c r="M5">
+        <v>9.77898326305127</v>
+      </c>
+      <c r="N5">
+        <v>0.496398514522307</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <v>1762563.938</v>
+      </c>
+      <c r="R5">
+        <v>5583091.402</v>
+      </c>
+      <c r="S5" t="s">
         <v>29</v>
       </c>
-      <c r="U4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="T5" t="s">
         <v>30</v>
       </c>
-      <c r="W4" t="s">
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
         <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
